--- a/2016년 재료비 6월/주산과암산 교재비.xlsx
+++ b/2016년 재료비 6월/주산과암산 교재비.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="555" windowWidth="20175" windowHeight="13500"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -554,17 +554,17 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8" style="8" customWidth="1"/>
-    <col min="3" max="3" width="8" style="8" customWidth="1"/>
-    <col min="4" max="4" width="7" style="8" customWidth="1"/>
-    <col min="5" max="5" width="11.125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="20.625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="21" style="9" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="8" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="8" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="8" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="16.625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -606,7 +606,7 @@
       <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>5000</v>
       </c>
       <c r="G2" s="4"/>
@@ -627,7 +627,7 @@
       <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>5000</v>
       </c>
       <c r="G3" s="4"/>
@@ -648,7 +648,7 @@
       <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>5000</v>
       </c>
       <c r="G4" s="4"/>
@@ -669,7 +669,7 @@
       <c r="E5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>5000</v>
       </c>
       <c r="G5" s="4"/>
@@ -690,7 +690,7 @@
       <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>8000</v>
       </c>
       <c r="G6" s="4"/>
@@ -711,7 +711,7 @@
       <c r="E7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>14000</v>
       </c>
       <c r="G7" s="4"/>
@@ -732,7 +732,7 @@
       <c r="E8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>14000</v>
       </c>
       <c r="G8" s="4"/>
@@ -753,7 +753,7 @@
       <c r="E9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>5000</v>
       </c>
       <c r="G9" s="4" t="s">
@@ -776,7 +776,7 @@
       <c r="E10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>5000</v>
       </c>
       <c r="G10" s="4" t="s">
@@ -799,7 +799,7 @@
       <c r="E11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>14000</v>
       </c>
       <c r="G11" s="4"/>
@@ -820,7 +820,7 @@
       <c r="E12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>5000</v>
       </c>
       <c r="G12" s="4"/>
@@ -841,7 +841,7 @@
       <c r="E13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <v>14000</v>
       </c>
       <c r="G13" s="4"/>
@@ -862,7 +862,7 @@
       <c r="E14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <v>8000</v>
       </c>
       <c r="G14" s="4"/>
@@ -883,7 +883,7 @@
       <c r="E15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <v>8000</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -906,7 +906,7 @@
       <c r="E16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <v>8000</v>
       </c>
       <c r="G16" s="4" t="s">
@@ -929,7 +929,7 @@
       <c r="E17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
         <v>8000</v>
       </c>
       <c r="G17" s="4" t="s">
@@ -952,7 +952,7 @@
       <c r="E18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <v>5000</v>
       </c>
       <c r="G18" s="4"/>
@@ -973,7 +973,7 @@
       <c r="E19" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="4">
         <v>14000</v>
       </c>
       <c r="G19" s="4"/>
@@ -994,7 +994,7 @@
       <c r="E20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="4">
         <v>8000</v>
       </c>
       <c r="G20" s="4"/>
@@ -1015,7 +1015,7 @@
       <c r="E21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="4">
         <v>5000</v>
       </c>
       <c r="G21" s="4"/>
@@ -1036,7 +1036,7 @@
       <c r="E22" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="4">
         <v>14000</v>
       </c>
       <c r="G22" s="4"/>
@@ -1057,7 +1057,7 @@
       <c r="E23" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="4">
         <v>8000</v>
       </c>
       <c r="G23" s="4" t="s">
@@ -1080,7 +1080,7 @@
       <c r="E24" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="4">
         <v>14000</v>
       </c>
       <c r="G24" s="4" t="s">
@@ -1103,7 +1103,7 @@
       <c r="E25" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="4">
         <v>14000</v>
       </c>
       <c r="G25" s="4"/>
@@ -1114,10 +1114,7 @@
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="5">
-        <f>SUM(F2:F25)</f>
-        <v>213000</v>
-      </c>
+      <c r="F26" s="5"/>
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7">
